--- a/GDP-FPGAII 2.x/GDPHS_VGA - v2.2 - BOM.xlsx
+++ b/GDP-FPGAII 2.x/GDPHS_VGA - v2.2 - BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NDR\NDR2.0\EAGLE\GDPFPGAII\GDP-FPGAII 2.x\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12945"/>
   </bookViews>
@@ -62,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="201">
   <si>
     <t>Qty</t>
   </si>
@@ -652,9 +657,6 @@
     <t>428-3241-ND</t>
   </si>
   <si>
-    <t>LFXP2-8E-5QN208C</t>
-  </si>
-  <si>
     <t>220-1253-ND</t>
   </si>
   <si>
@@ -662,6 +664,12 @@
   </si>
   <si>
     <t>JP18</t>
+  </si>
+  <si>
+    <t>cLFXP2-8E-5QN208C</t>
+  </si>
+  <si>
+    <t>122-1385-ND</t>
   </si>
 </sst>
 </file>
@@ -1177,54 +1185,57 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1281,7 +1292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,7 +1327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1528,11 +1539,11 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
@@ -1721,7 +1732,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -2384,10 +2395,10 @@
         <v>160</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2508,7 +2519,7 @@
         <v>91</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>92</v>
@@ -2554,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
@@ -2575,6 +2586,9 @@
       </c>
       <c r="E42" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="I42" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
